--- a/pred_ohlcv/54_21/2019-10-26 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 BHP ohlcv.xlsx
@@ -4526,7 +4526,7 @@
         <v>2230.7763219</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>2230.8763219</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>83.93432189999967</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>102.1343218999997</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>101.9343218999997</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>590.9546471899997</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>585.6546471899998</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>591.5546471899997</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>600.5546471899997</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>607.0546471899997</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>604.5546471899997</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>3447.448847189999</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>3405.81644719</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>3405.81644719</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>3465.416447189999</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>3484.016447189999</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>3484.016447189999</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>3484.016447189999</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>2420.29604719</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>2420.40714719</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>2417.50714719</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>2427.15014719</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>2427.30614719</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>2417.90614719</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>2399.40614719</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>2148.975347189999</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 BHP ohlcv.xlsx
@@ -4526,7 +4526,7 @@
         <v>2230.7763219</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>100.5884471899997</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>99.48844718999969</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>590.9546471899997</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>585.6546471899998</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>591.5546471899997</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>600.5546471899997</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>607.0546471899997</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>604.5546471899997</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>5341.24114719</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>2872.732047189999</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>3298.986347189999</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3296.986347189999</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>3296.986347189999</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>3319.186347189999</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>3313.686347189999</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>3330.486347189999</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>3447.448847189999</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>3405.81644719</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>3405.81644719</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>3405.81644719</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>3405.81644719</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>3472.21644719</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>3472.21644719</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>3465.416447189999</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>3465.416447189999</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>3484.016447189999</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>3484.016447189999</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>2420.29604719</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>2420.40714719</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>2417.50714719</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>2427.15014719</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>2427.30614719</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>2417.90614719</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>2399.40614719</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>2152.87534719</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
